--- a/mock.xlsx
+++ b/mock.xlsx
@@ -542,10 +542,10 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20:D21"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="n">
-        <v>56159917608</v>
+        <v>6656159917608</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>

--- a/mock.xlsx
+++ b/mock.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t xml:space="preserve">ALICI</t>
   </si>
@@ -98,15 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Doe Crossing Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apt 1708</t>
   </si>
   <si>
     <t xml:space="preserve">Voltsillam</t>
@@ -437,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -464,6 +455,11 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,12 +508,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,10 +542,10 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="n">
-        <v>6656159917608</v>
+        <v>56159917608</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -710,24 +710,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="n">
+        <v>56159917608</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="n">
-        <v>84535759415</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -759,23 +759,23 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="n">
         <v>15248116345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>20</v>
@@ -807,23 +807,23 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="n">
         <v>57412581496</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
@@ -855,26 +855,26 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="n">
         <v>23379506389</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>9</v>
@@ -903,26 +903,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="n">
         <v>82578625584</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>9</v>
@@ -953,22 +953,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>17727938908</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -997,26 +997,26 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="n">
         <v>83121341697</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -1045,26 +1045,26 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="n">
         <v>84899253426</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>10</v>
@@ -1093,23 +1093,23 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="n">
         <v>55030573933</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
@@ -1141,26 +1141,26 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="n">
         <v>87375327457</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>5</v>
@@ -1189,26 +1189,26 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="n">
         <v>91168125781</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -1239,22 +1239,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>62978159897</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>10</v>
@@ -1283,26 +1283,26 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="n">
         <v>50331190328</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>6</v>
@@ -1331,26 +1331,26 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="n">
         <v>90171397246</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -1379,26 +1379,26 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="n">
         <v>50150751749</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>3</v>
@@ -1427,23 +1427,23 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="n">
         <v>56788353976</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>25</v>
@@ -1475,23 +1475,23 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="n">
         <v>40400362674</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>25</v>
@@ -1523,26 +1523,26 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="n">
         <v>90819261162</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>6</v>
@@ -1571,23 +1571,23 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="n">
         <v>97207302650</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>20</v>
@@ -1619,23 +1619,23 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="n">
         <v>22472648706</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -1667,26 +1667,26 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="n">
         <v>79291075058</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>10</v>
@@ -1715,26 +1715,26 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="n">
         <v>43558697455</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>6</v>
@@ -1763,26 +1763,26 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="n">
         <v>99867725992</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>5</v>
@@ -1811,26 +1811,26 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="n">
         <v>59709034311</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>3</v>
@@ -1859,23 +1859,23 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="n">
         <v>84938605831</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>20</v>
@@ -1907,23 +1907,23 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="n">
         <v>53583634872</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -1955,26 +1955,26 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="n">
         <v>87366129683</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>2</v>
@@ -2003,26 +2003,26 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="n">
         <v>23560584455</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>10</v>
